--- a/data_voor_swing/gebiedsdefinities/REFREG.xlsx
+++ b/data_voor_swing/gebiedsdefinities/REFREG.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,26 +730,6 @@
         </is>
       </c>
     </row>
-    <row r="18" spans="1:4" s="0" outlineLevel="0">
-      <c r="A18" s="23">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>REFREG99</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Buiten Vlaanderen</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Buiten Vlaanderen</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_voor_swing/gebiedsdefinities/REFREG.xlsx
+++ b/data_voor_swing/gebiedsdefinities/REFREG.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,6 +730,26 @@
         </is>
       </c>
     </row>
+    <row r="18" spans="1:4" s="0" outlineLevel="0">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>REFREG99</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Buiten Vlaanderen en Brussel</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Buiten Vlaanderen en Brussel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_voor_swing/gebiedsdefinities/REFREG.xlsx
+++ b/data_voor_swing/gebiedsdefinities/REFREG.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,15 +736,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>REFREG93</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Niet te lokaliseren</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Niet te lokaliseren</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="0" outlineLevel="0">
+      <c r="A19" s="23">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>REFREG99</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Buiten Vlaanderen en Brussel</t>
         </is>
